--- a/SuppXLS/Scen_No_Nuclear.xlsx
+++ b/SuppXLS/Scen_No_Nuclear.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Najub\TIMES-AUT\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Olexandr\ResLab\Modelling\TIMES\TIMES-Shire\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-156" yWindow="1632" windowWidth="16548" windowHeight="5256" tabRatio="790"/>
+    <workbookView xWindow="-158" yWindow="1635" windowWidth="16545" windowHeight="5258" tabRatio="790"/>
   </bookViews>
   <sheets>
     <sheet name="ELC-PotCAP" sheetId="8" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t xml:space="preserve">\I: Unit </t>
   </si>
   <si>
-    <t>AUT</t>
-  </si>
-  <si>
     <t>AU_URNCAP</t>
   </si>
   <si>
@@ -71,11 +68,14 @@
   <si>
     <t>ELCURN</t>
   </si>
+  <si>
+    <t>SHR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -2493,669 +2493,669 @@
   <dimension ref="B2:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.53125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.46484375" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="2" customWidth="1"/>
-    <col min="9" max="255" width="9.109375" style="2"/>
-    <col min="256" max="256" width="3.5546875" style="2" customWidth="1"/>
-    <col min="257" max="257" width="21.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.86328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" style="2" customWidth="1"/>
+    <col min="9" max="255" width="9.1328125" style="2"/>
+    <col min="256" max="256" width="3.53125" style="2" customWidth="1"/>
+    <col min="257" max="257" width="21.46484375" style="2" customWidth="1"/>
     <col min="258" max="258" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="24.33203125" style="2" customWidth="1"/>
     <col min="260" max="260" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="14.88671875" style="2" customWidth="1"/>
-    <col min="262" max="262" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="16.88671875" style="2" customWidth="1"/>
+    <col min="261" max="261" width="14.86328125" style="2" customWidth="1"/>
+    <col min="262" max="262" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="16.86328125" style="2" customWidth="1"/>
     <col min="264" max="264" width="14" style="2" customWidth="1"/>
-    <col min="265" max="511" width="9.109375" style="2"/>
-    <col min="512" max="512" width="3.5546875" style="2" customWidth="1"/>
-    <col min="513" max="513" width="21.44140625" style="2" customWidth="1"/>
+    <col min="265" max="511" width="9.1328125" style="2"/>
+    <col min="512" max="512" width="3.53125" style="2" customWidth="1"/>
+    <col min="513" max="513" width="21.46484375" style="2" customWidth="1"/>
     <col min="514" max="514" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="515" max="515" width="24.33203125" style="2" customWidth="1"/>
     <col min="516" max="516" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="14.88671875" style="2" customWidth="1"/>
-    <col min="518" max="518" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="16.88671875" style="2" customWidth="1"/>
+    <col min="517" max="517" width="14.86328125" style="2" customWidth="1"/>
+    <col min="518" max="518" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="16.86328125" style="2" customWidth="1"/>
     <col min="520" max="520" width="14" style="2" customWidth="1"/>
-    <col min="521" max="767" width="9.109375" style="2"/>
-    <col min="768" max="768" width="3.5546875" style="2" customWidth="1"/>
-    <col min="769" max="769" width="21.44140625" style="2" customWidth="1"/>
+    <col min="521" max="767" width="9.1328125" style="2"/>
+    <col min="768" max="768" width="3.53125" style="2" customWidth="1"/>
+    <col min="769" max="769" width="21.46484375" style="2" customWidth="1"/>
     <col min="770" max="770" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="771" max="771" width="24.33203125" style="2" customWidth="1"/>
     <col min="772" max="772" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="14.88671875" style="2" customWidth="1"/>
-    <col min="774" max="774" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="16.88671875" style="2" customWidth="1"/>
+    <col min="773" max="773" width="14.86328125" style="2" customWidth="1"/>
+    <col min="774" max="774" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="16.86328125" style="2" customWidth="1"/>
     <col min="776" max="776" width="14" style="2" customWidth="1"/>
-    <col min="777" max="1023" width="9.109375" style="2"/>
-    <col min="1024" max="1024" width="3.5546875" style="2" customWidth="1"/>
-    <col min="1025" max="1025" width="21.44140625" style="2" customWidth="1"/>
+    <col min="777" max="1023" width="9.1328125" style="2"/>
+    <col min="1024" max="1024" width="3.53125" style="2" customWidth="1"/>
+    <col min="1025" max="1025" width="21.46484375" style="2" customWidth="1"/>
     <col min="1026" max="1026" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="1027" max="1027" width="24.33203125" style="2" customWidth="1"/>
     <col min="1028" max="1028" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="14.88671875" style="2" customWidth="1"/>
-    <col min="1030" max="1030" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="16.88671875" style="2" customWidth="1"/>
+    <col min="1029" max="1029" width="14.86328125" style="2" customWidth="1"/>
+    <col min="1030" max="1030" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="16.86328125" style="2" customWidth="1"/>
     <col min="1032" max="1032" width="14" style="2" customWidth="1"/>
-    <col min="1033" max="1279" width="9.109375" style="2"/>
-    <col min="1280" max="1280" width="3.5546875" style="2" customWidth="1"/>
-    <col min="1281" max="1281" width="21.44140625" style="2" customWidth="1"/>
+    <col min="1033" max="1279" width="9.1328125" style="2"/>
+    <col min="1280" max="1280" width="3.53125" style="2" customWidth="1"/>
+    <col min="1281" max="1281" width="21.46484375" style="2" customWidth="1"/>
     <col min="1282" max="1282" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="1283" max="1283" width="24.33203125" style="2" customWidth="1"/>
     <col min="1284" max="1284" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="14.88671875" style="2" customWidth="1"/>
-    <col min="1286" max="1286" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="16.88671875" style="2" customWidth="1"/>
+    <col min="1285" max="1285" width="14.86328125" style="2" customWidth="1"/>
+    <col min="1286" max="1286" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="16.86328125" style="2" customWidth="1"/>
     <col min="1288" max="1288" width="14" style="2" customWidth="1"/>
-    <col min="1289" max="1535" width="9.109375" style="2"/>
-    <col min="1536" max="1536" width="3.5546875" style="2" customWidth="1"/>
-    <col min="1537" max="1537" width="21.44140625" style="2" customWidth="1"/>
+    <col min="1289" max="1535" width="9.1328125" style="2"/>
+    <col min="1536" max="1536" width="3.53125" style="2" customWidth="1"/>
+    <col min="1537" max="1537" width="21.46484375" style="2" customWidth="1"/>
     <col min="1538" max="1538" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="1539" max="1539" width="24.33203125" style="2" customWidth="1"/>
     <col min="1540" max="1540" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="14.88671875" style="2" customWidth="1"/>
-    <col min="1542" max="1542" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="16.88671875" style="2" customWidth="1"/>
+    <col min="1541" max="1541" width="14.86328125" style="2" customWidth="1"/>
+    <col min="1542" max="1542" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="16.86328125" style="2" customWidth="1"/>
     <col min="1544" max="1544" width="14" style="2" customWidth="1"/>
-    <col min="1545" max="1791" width="9.109375" style="2"/>
-    <col min="1792" max="1792" width="3.5546875" style="2" customWidth="1"/>
-    <col min="1793" max="1793" width="21.44140625" style="2" customWidth="1"/>
+    <col min="1545" max="1791" width="9.1328125" style="2"/>
+    <col min="1792" max="1792" width="3.53125" style="2" customWidth="1"/>
+    <col min="1793" max="1793" width="21.46484375" style="2" customWidth="1"/>
     <col min="1794" max="1794" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="1795" max="1795" width="24.33203125" style="2" customWidth="1"/>
     <col min="1796" max="1796" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="14.88671875" style="2" customWidth="1"/>
-    <col min="1798" max="1798" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="16.88671875" style="2" customWidth="1"/>
+    <col min="1797" max="1797" width="14.86328125" style="2" customWidth="1"/>
+    <col min="1798" max="1798" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="16.86328125" style="2" customWidth="1"/>
     <col min="1800" max="1800" width="14" style="2" customWidth="1"/>
-    <col min="1801" max="2047" width="9.109375" style="2"/>
-    <col min="2048" max="2048" width="3.5546875" style="2" customWidth="1"/>
-    <col min="2049" max="2049" width="21.44140625" style="2" customWidth="1"/>
+    <col min="1801" max="2047" width="9.1328125" style="2"/>
+    <col min="2048" max="2048" width="3.53125" style="2" customWidth="1"/>
+    <col min="2049" max="2049" width="21.46484375" style="2" customWidth="1"/>
     <col min="2050" max="2050" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2051" max="2051" width="24.33203125" style="2" customWidth="1"/>
     <col min="2052" max="2052" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2054" max="2054" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="16.88671875" style="2" customWidth="1"/>
+    <col min="2053" max="2053" width="14.86328125" style="2" customWidth="1"/>
+    <col min="2054" max="2054" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="16.86328125" style="2" customWidth="1"/>
     <col min="2056" max="2056" width="14" style="2" customWidth="1"/>
-    <col min="2057" max="2303" width="9.109375" style="2"/>
-    <col min="2304" max="2304" width="3.5546875" style="2" customWidth="1"/>
-    <col min="2305" max="2305" width="21.44140625" style="2" customWidth="1"/>
+    <col min="2057" max="2303" width="9.1328125" style="2"/>
+    <col min="2304" max="2304" width="3.53125" style="2" customWidth="1"/>
+    <col min="2305" max="2305" width="21.46484375" style="2" customWidth="1"/>
     <col min="2306" max="2306" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2307" max="2307" width="24.33203125" style="2" customWidth="1"/>
     <col min="2308" max="2308" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2310" max="2310" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="16.88671875" style="2" customWidth="1"/>
+    <col min="2309" max="2309" width="14.86328125" style="2" customWidth="1"/>
+    <col min="2310" max="2310" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="16.86328125" style="2" customWidth="1"/>
     <col min="2312" max="2312" width="14" style="2" customWidth="1"/>
-    <col min="2313" max="2559" width="9.109375" style="2"/>
-    <col min="2560" max="2560" width="3.5546875" style="2" customWidth="1"/>
-    <col min="2561" max="2561" width="21.44140625" style="2" customWidth="1"/>
+    <col min="2313" max="2559" width="9.1328125" style="2"/>
+    <col min="2560" max="2560" width="3.53125" style="2" customWidth="1"/>
+    <col min="2561" max="2561" width="21.46484375" style="2" customWidth="1"/>
     <col min="2562" max="2562" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2563" max="2563" width="24.33203125" style="2" customWidth="1"/>
     <col min="2564" max="2564" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2566" max="2566" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="16.88671875" style="2" customWidth="1"/>
+    <col min="2565" max="2565" width="14.86328125" style="2" customWidth="1"/>
+    <col min="2566" max="2566" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="16.86328125" style="2" customWidth="1"/>
     <col min="2568" max="2568" width="14" style="2" customWidth="1"/>
-    <col min="2569" max="2815" width="9.109375" style="2"/>
-    <col min="2816" max="2816" width="3.5546875" style="2" customWidth="1"/>
-    <col min="2817" max="2817" width="21.44140625" style="2" customWidth="1"/>
+    <col min="2569" max="2815" width="9.1328125" style="2"/>
+    <col min="2816" max="2816" width="3.53125" style="2" customWidth="1"/>
+    <col min="2817" max="2817" width="21.46484375" style="2" customWidth="1"/>
     <col min="2818" max="2818" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2819" max="2819" width="24.33203125" style="2" customWidth="1"/>
     <col min="2820" max="2820" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2822" max="2822" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="16.88671875" style="2" customWidth="1"/>
+    <col min="2821" max="2821" width="14.86328125" style="2" customWidth="1"/>
+    <col min="2822" max="2822" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="16.86328125" style="2" customWidth="1"/>
     <col min="2824" max="2824" width="14" style="2" customWidth="1"/>
-    <col min="2825" max="3071" width="9.109375" style="2"/>
-    <col min="3072" max="3072" width="3.5546875" style="2" customWidth="1"/>
-    <col min="3073" max="3073" width="21.44140625" style="2" customWidth="1"/>
+    <col min="2825" max="3071" width="9.1328125" style="2"/>
+    <col min="3072" max="3072" width="3.53125" style="2" customWidth="1"/>
+    <col min="3073" max="3073" width="21.46484375" style="2" customWidth="1"/>
     <col min="3074" max="3074" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3075" max="3075" width="24.33203125" style="2" customWidth="1"/>
     <col min="3076" max="3076" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3078" max="3078" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="16.88671875" style="2" customWidth="1"/>
+    <col min="3077" max="3077" width="14.86328125" style="2" customWidth="1"/>
+    <col min="3078" max="3078" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="16.86328125" style="2" customWidth="1"/>
     <col min="3080" max="3080" width="14" style="2" customWidth="1"/>
-    <col min="3081" max="3327" width="9.109375" style="2"/>
-    <col min="3328" max="3328" width="3.5546875" style="2" customWidth="1"/>
-    <col min="3329" max="3329" width="21.44140625" style="2" customWidth="1"/>
+    <col min="3081" max="3327" width="9.1328125" style="2"/>
+    <col min="3328" max="3328" width="3.53125" style="2" customWidth="1"/>
+    <col min="3329" max="3329" width="21.46484375" style="2" customWidth="1"/>
     <col min="3330" max="3330" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3331" max="3331" width="24.33203125" style="2" customWidth="1"/>
     <col min="3332" max="3332" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3334" max="3334" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="16.88671875" style="2" customWidth="1"/>
+    <col min="3333" max="3333" width="14.86328125" style="2" customWidth="1"/>
+    <col min="3334" max="3334" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="16.86328125" style="2" customWidth="1"/>
     <col min="3336" max="3336" width="14" style="2" customWidth="1"/>
-    <col min="3337" max="3583" width="9.109375" style="2"/>
-    <col min="3584" max="3584" width="3.5546875" style="2" customWidth="1"/>
-    <col min="3585" max="3585" width="21.44140625" style="2" customWidth="1"/>
+    <col min="3337" max="3583" width="9.1328125" style="2"/>
+    <col min="3584" max="3584" width="3.53125" style="2" customWidth="1"/>
+    <col min="3585" max="3585" width="21.46484375" style="2" customWidth="1"/>
     <col min="3586" max="3586" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3587" max="3587" width="24.33203125" style="2" customWidth="1"/>
     <col min="3588" max="3588" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3590" max="3590" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="16.88671875" style="2" customWidth="1"/>
+    <col min="3589" max="3589" width="14.86328125" style="2" customWidth="1"/>
+    <col min="3590" max="3590" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="16.86328125" style="2" customWidth="1"/>
     <col min="3592" max="3592" width="14" style="2" customWidth="1"/>
-    <col min="3593" max="3839" width="9.109375" style="2"/>
-    <col min="3840" max="3840" width="3.5546875" style="2" customWidth="1"/>
-    <col min="3841" max="3841" width="21.44140625" style="2" customWidth="1"/>
+    <col min="3593" max="3839" width="9.1328125" style="2"/>
+    <col min="3840" max="3840" width="3.53125" style="2" customWidth="1"/>
+    <col min="3841" max="3841" width="21.46484375" style="2" customWidth="1"/>
     <col min="3842" max="3842" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3843" max="3843" width="24.33203125" style="2" customWidth="1"/>
     <col min="3844" max="3844" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3846" max="3846" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="16.88671875" style="2" customWidth="1"/>
+    <col min="3845" max="3845" width="14.86328125" style="2" customWidth="1"/>
+    <col min="3846" max="3846" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="16.86328125" style="2" customWidth="1"/>
     <col min="3848" max="3848" width="14" style="2" customWidth="1"/>
-    <col min="3849" max="4095" width="9.109375" style="2"/>
-    <col min="4096" max="4096" width="3.5546875" style="2" customWidth="1"/>
-    <col min="4097" max="4097" width="21.44140625" style="2" customWidth="1"/>
+    <col min="3849" max="4095" width="9.1328125" style="2"/>
+    <col min="4096" max="4096" width="3.53125" style="2" customWidth="1"/>
+    <col min="4097" max="4097" width="21.46484375" style="2" customWidth="1"/>
     <col min="4098" max="4098" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4099" max="4099" width="24.33203125" style="2" customWidth="1"/>
     <col min="4100" max="4100" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="14.88671875" style="2" customWidth="1"/>
-    <col min="4102" max="4102" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="16.88671875" style="2" customWidth="1"/>
+    <col min="4101" max="4101" width="14.86328125" style="2" customWidth="1"/>
+    <col min="4102" max="4102" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="16.86328125" style="2" customWidth="1"/>
     <col min="4104" max="4104" width="14" style="2" customWidth="1"/>
-    <col min="4105" max="4351" width="9.109375" style="2"/>
-    <col min="4352" max="4352" width="3.5546875" style="2" customWidth="1"/>
-    <col min="4353" max="4353" width="21.44140625" style="2" customWidth="1"/>
+    <col min="4105" max="4351" width="9.1328125" style="2"/>
+    <col min="4352" max="4352" width="3.53125" style="2" customWidth="1"/>
+    <col min="4353" max="4353" width="21.46484375" style="2" customWidth="1"/>
     <col min="4354" max="4354" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4355" max="4355" width="24.33203125" style="2" customWidth="1"/>
     <col min="4356" max="4356" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="14.88671875" style="2" customWidth="1"/>
-    <col min="4358" max="4358" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="16.88671875" style="2" customWidth="1"/>
+    <col min="4357" max="4357" width="14.86328125" style="2" customWidth="1"/>
+    <col min="4358" max="4358" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="16.86328125" style="2" customWidth="1"/>
     <col min="4360" max="4360" width="14" style="2" customWidth="1"/>
-    <col min="4361" max="4607" width="9.109375" style="2"/>
-    <col min="4608" max="4608" width="3.5546875" style="2" customWidth="1"/>
-    <col min="4609" max="4609" width="21.44140625" style="2" customWidth="1"/>
+    <col min="4361" max="4607" width="9.1328125" style="2"/>
+    <col min="4608" max="4608" width="3.53125" style="2" customWidth="1"/>
+    <col min="4609" max="4609" width="21.46484375" style="2" customWidth="1"/>
     <col min="4610" max="4610" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4611" max="4611" width="24.33203125" style="2" customWidth="1"/>
     <col min="4612" max="4612" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="14.88671875" style="2" customWidth="1"/>
-    <col min="4614" max="4614" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="16.88671875" style="2" customWidth="1"/>
+    <col min="4613" max="4613" width="14.86328125" style="2" customWidth="1"/>
+    <col min="4614" max="4614" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="16.86328125" style="2" customWidth="1"/>
     <col min="4616" max="4616" width="14" style="2" customWidth="1"/>
-    <col min="4617" max="4863" width="9.109375" style="2"/>
-    <col min="4864" max="4864" width="3.5546875" style="2" customWidth="1"/>
-    <col min="4865" max="4865" width="21.44140625" style="2" customWidth="1"/>
+    <col min="4617" max="4863" width="9.1328125" style="2"/>
+    <col min="4864" max="4864" width="3.53125" style="2" customWidth="1"/>
+    <col min="4865" max="4865" width="21.46484375" style="2" customWidth="1"/>
     <col min="4866" max="4866" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4867" max="4867" width="24.33203125" style="2" customWidth="1"/>
     <col min="4868" max="4868" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="14.88671875" style="2" customWidth="1"/>
-    <col min="4870" max="4870" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="16.88671875" style="2" customWidth="1"/>
+    <col min="4869" max="4869" width="14.86328125" style="2" customWidth="1"/>
+    <col min="4870" max="4870" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="16.86328125" style="2" customWidth="1"/>
     <col min="4872" max="4872" width="14" style="2" customWidth="1"/>
-    <col min="4873" max="5119" width="9.109375" style="2"/>
-    <col min="5120" max="5120" width="3.5546875" style="2" customWidth="1"/>
-    <col min="5121" max="5121" width="21.44140625" style="2" customWidth="1"/>
+    <col min="4873" max="5119" width="9.1328125" style="2"/>
+    <col min="5120" max="5120" width="3.53125" style="2" customWidth="1"/>
+    <col min="5121" max="5121" width="21.46484375" style="2" customWidth="1"/>
     <col min="5122" max="5122" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5123" max="5123" width="24.33203125" style="2" customWidth="1"/>
     <col min="5124" max="5124" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="14.88671875" style="2" customWidth="1"/>
-    <col min="5126" max="5126" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="16.88671875" style="2" customWidth="1"/>
+    <col min="5125" max="5125" width="14.86328125" style="2" customWidth="1"/>
+    <col min="5126" max="5126" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="16.86328125" style="2" customWidth="1"/>
     <col min="5128" max="5128" width="14" style="2" customWidth="1"/>
-    <col min="5129" max="5375" width="9.109375" style="2"/>
-    <col min="5376" max="5376" width="3.5546875" style="2" customWidth="1"/>
-    <col min="5377" max="5377" width="21.44140625" style="2" customWidth="1"/>
+    <col min="5129" max="5375" width="9.1328125" style="2"/>
+    <col min="5376" max="5376" width="3.53125" style="2" customWidth="1"/>
+    <col min="5377" max="5377" width="21.46484375" style="2" customWidth="1"/>
     <col min="5378" max="5378" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5379" max="5379" width="24.33203125" style="2" customWidth="1"/>
     <col min="5380" max="5380" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="14.88671875" style="2" customWidth="1"/>
-    <col min="5382" max="5382" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="16.88671875" style="2" customWidth="1"/>
+    <col min="5381" max="5381" width="14.86328125" style="2" customWidth="1"/>
+    <col min="5382" max="5382" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="16.86328125" style="2" customWidth="1"/>
     <col min="5384" max="5384" width="14" style="2" customWidth="1"/>
-    <col min="5385" max="5631" width="9.109375" style="2"/>
-    <col min="5632" max="5632" width="3.5546875" style="2" customWidth="1"/>
-    <col min="5633" max="5633" width="21.44140625" style="2" customWidth="1"/>
+    <col min="5385" max="5631" width="9.1328125" style="2"/>
+    <col min="5632" max="5632" width="3.53125" style="2" customWidth="1"/>
+    <col min="5633" max="5633" width="21.46484375" style="2" customWidth="1"/>
     <col min="5634" max="5634" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5635" max="5635" width="24.33203125" style="2" customWidth="1"/>
     <col min="5636" max="5636" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="14.88671875" style="2" customWidth="1"/>
-    <col min="5638" max="5638" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="16.88671875" style="2" customWidth="1"/>
+    <col min="5637" max="5637" width="14.86328125" style="2" customWidth="1"/>
+    <col min="5638" max="5638" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="16.86328125" style="2" customWidth="1"/>
     <col min="5640" max="5640" width="14" style="2" customWidth="1"/>
-    <col min="5641" max="5887" width="9.109375" style="2"/>
-    <col min="5888" max="5888" width="3.5546875" style="2" customWidth="1"/>
-    <col min="5889" max="5889" width="21.44140625" style="2" customWidth="1"/>
+    <col min="5641" max="5887" width="9.1328125" style="2"/>
+    <col min="5888" max="5888" width="3.53125" style="2" customWidth="1"/>
+    <col min="5889" max="5889" width="21.46484375" style="2" customWidth="1"/>
     <col min="5890" max="5890" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5891" max="5891" width="24.33203125" style="2" customWidth="1"/>
     <col min="5892" max="5892" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="14.88671875" style="2" customWidth="1"/>
-    <col min="5894" max="5894" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="16.88671875" style="2" customWidth="1"/>
+    <col min="5893" max="5893" width="14.86328125" style="2" customWidth="1"/>
+    <col min="5894" max="5894" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="16.86328125" style="2" customWidth="1"/>
     <col min="5896" max="5896" width="14" style="2" customWidth="1"/>
-    <col min="5897" max="6143" width="9.109375" style="2"/>
-    <col min="6144" max="6144" width="3.5546875" style="2" customWidth="1"/>
-    <col min="6145" max="6145" width="21.44140625" style="2" customWidth="1"/>
+    <col min="5897" max="6143" width="9.1328125" style="2"/>
+    <col min="6144" max="6144" width="3.53125" style="2" customWidth="1"/>
+    <col min="6145" max="6145" width="21.46484375" style="2" customWidth="1"/>
     <col min="6146" max="6146" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6147" max="6147" width="24.33203125" style="2" customWidth="1"/>
     <col min="6148" max="6148" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="14.88671875" style="2" customWidth="1"/>
-    <col min="6150" max="6150" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="16.88671875" style="2" customWidth="1"/>
+    <col min="6149" max="6149" width="14.86328125" style="2" customWidth="1"/>
+    <col min="6150" max="6150" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="16.86328125" style="2" customWidth="1"/>
     <col min="6152" max="6152" width="14" style="2" customWidth="1"/>
-    <col min="6153" max="6399" width="9.109375" style="2"/>
-    <col min="6400" max="6400" width="3.5546875" style="2" customWidth="1"/>
-    <col min="6401" max="6401" width="21.44140625" style="2" customWidth="1"/>
+    <col min="6153" max="6399" width="9.1328125" style="2"/>
+    <col min="6400" max="6400" width="3.53125" style="2" customWidth="1"/>
+    <col min="6401" max="6401" width="21.46484375" style="2" customWidth="1"/>
     <col min="6402" max="6402" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6403" max="6403" width="24.33203125" style="2" customWidth="1"/>
     <col min="6404" max="6404" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="14.88671875" style="2" customWidth="1"/>
-    <col min="6406" max="6406" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="16.88671875" style="2" customWidth="1"/>
+    <col min="6405" max="6405" width="14.86328125" style="2" customWidth="1"/>
+    <col min="6406" max="6406" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="16.86328125" style="2" customWidth="1"/>
     <col min="6408" max="6408" width="14" style="2" customWidth="1"/>
-    <col min="6409" max="6655" width="9.109375" style="2"/>
-    <col min="6656" max="6656" width="3.5546875" style="2" customWidth="1"/>
-    <col min="6657" max="6657" width="21.44140625" style="2" customWidth="1"/>
+    <col min="6409" max="6655" width="9.1328125" style="2"/>
+    <col min="6656" max="6656" width="3.53125" style="2" customWidth="1"/>
+    <col min="6657" max="6657" width="21.46484375" style="2" customWidth="1"/>
     <col min="6658" max="6658" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6659" max="6659" width="24.33203125" style="2" customWidth="1"/>
     <col min="6660" max="6660" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="14.88671875" style="2" customWidth="1"/>
-    <col min="6662" max="6662" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="16.88671875" style="2" customWidth="1"/>
+    <col min="6661" max="6661" width="14.86328125" style="2" customWidth="1"/>
+    <col min="6662" max="6662" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="16.86328125" style="2" customWidth="1"/>
     <col min="6664" max="6664" width="14" style="2" customWidth="1"/>
-    <col min="6665" max="6911" width="9.109375" style="2"/>
-    <col min="6912" max="6912" width="3.5546875" style="2" customWidth="1"/>
-    <col min="6913" max="6913" width="21.44140625" style="2" customWidth="1"/>
+    <col min="6665" max="6911" width="9.1328125" style="2"/>
+    <col min="6912" max="6912" width="3.53125" style="2" customWidth="1"/>
+    <col min="6913" max="6913" width="21.46484375" style="2" customWidth="1"/>
     <col min="6914" max="6914" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6915" max="6915" width="24.33203125" style="2" customWidth="1"/>
     <col min="6916" max="6916" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="14.88671875" style="2" customWidth="1"/>
-    <col min="6918" max="6918" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="16.88671875" style="2" customWidth="1"/>
+    <col min="6917" max="6917" width="14.86328125" style="2" customWidth="1"/>
+    <col min="6918" max="6918" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="16.86328125" style="2" customWidth="1"/>
     <col min="6920" max="6920" width="14" style="2" customWidth="1"/>
-    <col min="6921" max="7167" width="9.109375" style="2"/>
-    <col min="7168" max="7168" width="3.5546875" style="2" customWidth="1"/>
-    <col min="7169" max="7169" width="21.44140625" style="2" customWidth="1"/>
+    <col min="6921" max="7167" width="9.1328125" style="2"/>
+    <col min="7168" max="7168" width="3.53125" style="2" customWidth="1"/>
+    <col min="7169" max="7169" width="21.46484375" style="2" customWidth="1"/>
     <col min="7170" max="7170" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7171" max="7171" width="24.33203125" style="2" customWidth="1"/>
     <col min="7172" max="7172" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="14.88671875" style="2" customWidth="1"/>
-    <col min="7174" max="7174" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="16.88671875" style="2" customWidth="1"/>
+    <col min="7173" max="7173" width="14.86328125" style="2" customWidth="1"/>
+    <col min="7174" max="7174" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="16.86328125" style="2" customWidth="1"/>
     <col min="7176" max="7176" width="14" style="2" customWidth="1"/>
-    <col min="7177" max="7423" width="9.109375" style="2"/>
-    <col min="7424" max="7424" width="3.5546875" style="2" customWidth="1"/>
-    <col min="7425" max="7425" width="21.44140625" style="2" customWidth="1"/>
+    <col min="7177" max="7423" width="9.1328125" style="2"/>
+    <col min="7424" max="7424" width="3.53125" style="2" customWidth="1"/>
+    <col min="7425" max="7425" width="21.46484375" style="2" customWidth="1"/>
     <col min="7426" max="7426" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7427" max="7427" width="24.33203125" style="2" customWidth="1"/>
     <col min="7428" max="7428" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="14.88671875" style="2" customWidth="1"/>
-    <col min="7430" max="7430" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="16.88671875" style="2" customWidth="1"/>
+    <col min="7429" max="7429" width="14.86328125" style="2" customWidth="1"/>
+    <col min="7430" max="7430" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="16.86328125" style="2" customWidth="1"/>
     <col min="7432" max="7432" width="14" style="2" customWidth="1"/>
-    <col min="7433" max="7679" width="9.109375" style="2"/>
-    <col min="7680" max="7680" width="3.5546875" style="2" customWidth="1"/>
-    <col min="7681" max="7681" width="21.44140625" style="2" customWidth="1"/>
+    <col min="7433" max="7679" width="9.1328125" style="2"/>
+    <col min="7680" max="7680" width="3.53125" style="2" customWidth="1"/>
+    <col min="7681" max="7681" width="21.46484375" style="2" customWidth="1"/>
     <col min="7682" max="7682" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7683" max="7683" width="24.33203125" style="2" customWidth="1"/>
     <col min="7684" max="7684" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="14.88671875" style="2" customWidth="1"/>
-    <col min="7686" max="7686" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="16.88671875" style="2" customWidth="1"/>
+    <col min="7685" max="7685" width="14.86328125" style="2" customWidth="1"/>
+    <col min="7686" max="7686" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="16.86328125" style="2" customWidth="1"/>
     <col min="7688" max="7688" width="14" style="2" customWidth="1"/>
-    <col min="7689" max="7935" width="9.109375" style="2"/>
-    <col min="7936" max="7936" width="3.5546875" style="2" customWidth="1"/>
-    <col min="7937" max="7937" width="21.44140625" style="2" customWidth="1"/>
+    <col min="7689" max="7935" width="9.1328125" style="2"/>
+    <col min="7936" max="7936" width="3.53125" style="2" customWidth="1"/>
+    <col min="7937" max="7937" width="21.46484375" style="2" customWidth="1"/>
     <col min="7938" max="7938" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7939" max="7939" width="24.33203125" style="2" customWidth="1"/>
     <col min="7940" max="7940" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="14.88671875" style="2" customWidth="1"/>
-    <col min="7942" max="7942" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="16.88671875" style="2" customWidth="1"/>
+    <col min="7941" max="7941" width="14.86328125" style="2" customWidth="1"/>
+    <col min="7942" max="7942" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="16.86328125" style="2" customWidth="1"/>
     <col min="7944" max="7944" width="14" style="2" customWidth="1"/>
-    <col min="7945" max="8191" width="9.109375" style="2"/>
-    <col min="8192" max="8192" width="3.5546875" style="2" customWidth="1"/>
-    <col min="8193" max="8193" width="21.44140625" style="2" customWidth="1"/>
+    <col min="7945" max="8191" width="9.1328125" style="2"/>
+    <col min="8192" max="8192" width="3.53125" style="2" customWidth="1"/>
+    <col min="8193" max="8193" width="21.46484375" style="2" customWidth="1"/>
     <col min="8194" max="8194" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8195" max="8195" width="24.33203125" style="2" customWidth="1"/>
     <col min="8196" max="8196" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="14.88671875" style="2" customWidth="1"/>
-    <col min="8198" max="8198" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="16.88671875" style="2" customWidth="1"/>
+    <col min="8197" max="8197" width="14.86328125" style="2" customWidth="1"/>
+    <col min="8198" max="8198" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="16.86328125" style="2" customWidth="1"/>
     <col min="8200" max="8200" width="14" style="2" customWidth="1"/>
-    <col min="8201" max="8447" width="9.109375" style="2"/>
-    <col min="8448" max="8448" width="3.5546875" style="2" customWidth="1"/>
-    <col min="8449" max="8449" width="21.44140625" style="2" customWidth="1"/>
+    <col min="8201" max="8447" width="9.1328125" style="2"/>
+    <col min="8448" max="8448" width="3.53125" style="2" customWidth="1"/>
+    <col min="8449" max="8449" width="21.46484375" style="2" customWidth="1"/>
     <col min="8450" max="8450" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8451" max="8451" width="24.33203125" style="2" customWidth="1"/>
     <col min="8452" max="8452" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="14.88671875" style="2" customWidth="1"/>
-    <col min="8454" max="8454" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="16.88671875" style="2" customWidth="1"/>
+    <col min="8453" max="8453" width="14.86328125" style="2" customWidth="1"/>
+    <col min="8454" max="8454" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="16.86328125" style="2" customWidth="1"/>
     <col min="8456" max="8456" width="14" style="2" customWidth="1"/>
-    <col min="8457" max="8703" width="9.109375" style="2"/>
-    <col min="8704" max="8704" width="3.5546875" style="2" customWidth="1"/>
-    <col min="8705" max="8705" width="21.44140625" style="2" customWidth="1"/>
+    <col min="8457" max="8703" width="9.1328125" style="2"/>
+    <col min="8704" max="8704" width="3.53125" style="2" customWidth="1"/>
+    <col min="8705" max="8705" width="21.46484375" style="2" customWidth="1"/>
     <col min="8706" max="8706" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8707" max="8707" width="24.33203125" style="2" customWidth="1"/>
     <col min="8708" max="8708" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="14.88671875" style="2" customWidth="1"/>
-    <col min="8710" max="8710" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="16.88671875" style="2" customWidth="1"/>
+    <col min="8709" max="8709" width="14.86328125" style="2" customWidth="1"/>
+    <col min="8710" max="8710" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="16.86328125" style="2" customWidth="1"/>
     <col min="8712" max="8712" width="14" style="2" customWidth="1"/>
-    <col min="8713" max="8959" width="9.109375" style="2"/>
-    <col min="8960" max="8960" width="3.5546875" style="2" customWidth="1"/>
-    <col min="8961" max="8961" width="21.44140625" style="2" customWidth="1"/>
+    <col min="8713" max="8959" width="9.1328125" style="2"/>
+    <col min="8960" max="8960" width="3.53125" style="2" customWidth="1"/>
+    <col min="8961" max="8961" width="21.46484375" style="2" customWidth="1"/>
     <col min="8962" max="8962" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8963" max="8963" width="24.33203125" style="2" customWidth="1"/>
     <col min="8964" max="8964" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="14.88671875" style="2" customWidth="1"/>
-    <col min="8966" max="8966" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="16.88671875" style="2" customWidth="1"/>
+    <col min="8965" max="8965" width="14.86328125" style="2" customWidth="1"/>
+    <col min="8966" max="8966" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="16.86328125" style="2" customWidth="1"/>
     <col min="8968" max="8968" width="14" style="2" customWidth="1"/>
-    <col min="8969" max="9215" width="9.109375" style="2"/>
-    <col min="9216" max="9216" width="3.5546875" style="2" customWidth="1"/>
-    <col min="9217" max="9217" width="21.44140625" style="2" customWidth="1"/>
+    <col min="8969" max="9215" width="9.1328125" style="2"/>
+    <col min="9216" max="9216" width="3.53125" style="2" customWidth="1"/>
+    <col min="9217" max="9217" width="21.46484375" style="2" customWidth="1"/>
     <col min="9218" max="9218" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9219" max="9219" width="24.33203125" style="2" customWidth="1"/>
     <col min="9220" max="9220" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="14.88671875" style="2" customWidth="1"/>
-    <col min="9222" max="9222" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="16.88671875" style="2" customWidth="1"/>
+    <col min="9221" max="9221" width="14.86328125" style="2" customWidth="1"/>
+    <col min="9222" max="9222" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="16.86328125" style="2" customWidth="1"/>
     <col min="9224" max="9224" width="14" style="2" customWidth="1"/>
-    <col min="9225" max="9471" width="9.109375" style="2"/>
-    <col min="9472" max="9472" width="3.5546875" style="2" customWidth="1"/>
-    <col min="9473" max="9473" width="21.44140625" style="2" customWidth="1"/>
+    <col min="9225" max="9471" width="9.1328125" style="2"/>
+    <col min="9472" max="9472" width="3.53125" style="2" customWidth="1"/>
+    <col min="9473" max="9473" width="21.46484375" style="2" customWidth="1"/>
     <col min="9474" max="9474" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9475" max="9475" width="24.33203125" style="2" customWidth="1"/>
     <col min="9476" max="9476" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="14.88671875" style="2" customWidth="1"/>
-    <col min="9478" max="9478" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="16.88671875" style="2" customWidth="1"/>
+    <col min="9477" max="9477" width="14.86328125" style="2" customWidth="1"/>
+    <col min="9478" max="9478" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="16.86328125" style="2" customWidth="1"/>
     <col min="9480" max="9480" width="14" style="2" customWidth="1"/>
-    <col min="9481" max="9727" width="9.109375" style="2"/>
-    <col min="9728" max="9728" width="3.5546875" style="2" customWidth="1"/>
-    <col min="9729" max="9729" width="21.44140625" style="2" customWidth="1"/>
+    <col min="9481" max="9727" width="9.1328125" style="2"/>
+    <col min="9728" max="9728" width="3.53125" style="2" customWidth="1"/>
+    <col min="9729" max="9729" width="21.46484375" style="2" customWidth="1"/>
     <col min="9730" max="9730" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9731" max="9731" width="24.33203125" style="2" customWidth="1"/>
     <col min="9732" max="9732" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="14.88671875" style="2" customWidth="1"/>
-    <col min="9734" max="9734" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="16.88671875" style="2" customWidth="1"/>
+    <col min="9733" max="9733" width="14.86328125" style="2" customWidth="1"/>
+    <col min="9734" max="9734" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="16.86328125" style="2" customWidth="1"/>
     <col min="9736" max="9736" width="14" style="2" customWidth="1"/>
-    <col min="9737" max="9983" width="9.109375" style="2"/>
-    <col min="9984" max="9984" width="3.5546875" style="2" customWidth="1"/>
-    <col min="9985" max="9985" width="21.44140625" style="2" customWidth="1"/>
+    <col min="9737" max="9983" width="9.1328125" style="2"/>
+    <col min="9984" max="9984" width="3.53125" style="2" customWidth="1"/>
+    <col min="9985" max="9985" width="21.46484375" style="2" customWidth="1"/>
     <col min="9986" max="9986" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9987" max="9987" width="24.33203125" style="2" customWidth="1"/>
     <col min="9988" max="9988" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="14.88671875" style="2" customWidth="1"/>
-    <col min="9990" max="9990" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="16.88671875" style="2" customWidth="1"/>
+    <col min="9989" max="9989" width="14.86328125" style="2" customWidth="1"/>
+    <col min="9990" max="9990" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="16.86328125" style="2" customWidth="1"/>
     <col min="9992" max="9992" width="14" style="2" customWidth="1"/>
-    <col min="9993" max="10239" width="9.109375" style="2"/>
-    <col min="10240" max="10240" width="3.5546875" style="2" customWidth="1"/>
-    <col min="10241" max="10241" width="21.44140625" style="2" customWidth="1"/>
+    <col min="9993" max="10239" width="9.1328125" style="2"/>
+    <col min="10240" max="10240" width="3.53125" style="2" customWidth="1"/>
+    <col min="10241" max="10241" width="21.46484375" style="2" customWidth="1"/>
     <col min="10242" max="10242" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10243" max="10243" width="24.33203125" style="2" customWidth="1"/>
     <col min="10244" max="10244" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10246" max="10246" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="16.88671875" style="2" customWidth="1"/>
+    <col min="10245" max="10245" width="14.86328125" style="2" customWidth="1"/>
+    <col min="10246" max="10246" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="16.86328125" style="2" customWidth="1"/>
     <col min="10248" max="10248" width="14" style="2" customWidth="1"/>
-    <col min="10249" max="10495" width="9.109375" style="2"/>
-    <col min="10496" max="10496" width="3.5546875" style="2" customWidth="1"/>
-    <col min="10497" max="10497" width="21.44140625" style="2" customWidth="1"/>
+    <col min="10249" max="10495" width="9.1328125" style="2"/>
+    <col min="10496" max="10496" width="3.53125" style="2" customWidth="1"/>
+    <col min="10497" max="10497" width="21.46484375" style="2" customWidth="1"/>
     <col min="10498" max="10498" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10499" max="10499" width="24.33203125" style="2" customWidth="1"/>
     <col min="10500" max="10500" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10502" max="10502" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="16.88671875" style="2" customWidth="1"/>
+    <col min="10501" max="10501" width="14.86328125" style="2" customWidth="1"/>
+    <col min="10502" max="10502" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="16.86328125" style="2" customWidth="1"/>
     <col min="10504" max="10504" width="14" style="2" customWidth="1"/>
-    <col min="10505" max="10751" width="9.109375" style="2"/>
-    <col min="10752" max="10752" width="3.5546875" style="2" customWidth="1"/>
-    <col min="10753" max="10753" width="21.44140625" style="2" customWidth="1"/>
+    <col min="10505" max="10751" width="9.1328125" style="2"/>
+    <col min="10752" max="10752" width="3.53125" style="2" customWidth="1"/>
+    <col min="10753" max="10753" width="21.46484375" style="2" customWidth="1"/>
     <col min="10754" max="10754" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10755" max="10755" width="24.33203125" style="2" customWidth="1"/>
     <col min="10756" max="10756" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10758" max="10758" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="16.88671875" style="2" customWidth="1"/>
+    <col min="10757" max="10757" width="14.86328125" style="2" customWidth="1"/>
+    <col min="10758" max="10758" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="16.86328125" style="2" customWidth="1"/>
     <col min="10760" max="10760" width="14" style="2" customWidth="1"/>
-    <col min="10761" max="11007" width="9.109375" style="2"/>
-    <col min="11008" max="11008" width="3.5546875" style="2" customWidth="1"/>
-    <col min="11009" max="11009" width="21.44140625" style="2" customWidth="1"/>
+    <col min="10761" max="11007" width="9.1328125" style="2"/>
+    <col min="11008" max="11008" width="3.53125" style="2" customWidth="1"/>
+    <col min="11009" max="11009" width="21.46484375" style="2" customWidth="1"/>
     <col min="11010" max="11010" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11011" max="11011" width="24.33203125" style="2" customWidth="1"/>
     <col min="11012" max="11012" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="14.88671875" style="2" customWidth="1"/>
-    <col min="11014" max="11014" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="16.88671875" style="2" customWidth="1"/>
+    <col min="11013" max="11013" width="14.86328125" style="2" customWidth="1"/>
+    <col min="11014" max="11014" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="16.86328125" style="2" customWidth="1"/>
     <col min="11016" max="11016" width="14" style="2" customWidth="1"/>
-    <col min="11017" max="11263" width="9.109375" style="2"/>
-    <col min="11264" max="11264" width="3.5546875" style="2" customWidth="1"/>
-    <col min="11265" max="11265" width="21.44140625" style="2" customWidth="1"/>
+    <col min="11017" max="11263" width="9.1328125" style="2"/>
+    <col min="11264" max="11264" width="3.53125" style="2" customWidth="1"/>
+    <col min="11265" max="11265" width="21.46484375" style="2" customWidth="1"/>
     <col min="11266" max="11266" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11267" max="11267" width="24.33203125" style="2" customWidth="1"/>
     <col min="11268" max="11268" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="14.88671875" style="2" customWidth="1"/>
-    <col min="11270" max="11270" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="16.88671875" style="2" customWidth="1"/>
+    <col min="11269" max="11269" width="14.86328125" style="2" customWidth="1"/>
+    <col min="11270" max="11270" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="16.86328125" style="2" customWidth="1"/>
     <col min="11272" max="11272" width="14" style="2" customWidth="1"/>
-    <col min="11273" max="11519" width="9.109375" style="2"/>
-    <col min="11520" max="11520" width="3.5546875" style="2" customWidth="1"/>
-    <col min="11521" max="11521" width="21.44140625" style="2" customWidth="1"/>
+    <col min="11273" max="11519" width="9.1328125" style="2"/>
+    <col min="11520" max="11520" width="3.53125" style="2" customWidth="1"/>
+    <col min="11521" max="11521" width="21.46484375" style="2" customWidth="1"/>
     <col min="11522" max="11522" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11523" max="11523" width="24.33203125" style="2" customWidth="1"/>
     <col min="11524" max="11524" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="14.88671875" style="2" customWidth="1"/>
-    <col min="11526" max="11526" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="16.88671875" style="2" customWidth="1"/>
+    <col min="11525" max="11525" width="14.86328125" style="2" customWidth="1"/>
+    <col min="11526" max="11526" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="16.86328125" style="2" customWidth="1"/>
     <col min="11528" max="11528" width="14" style="2" customWidth="1"/>
-    <col min="11529" max="11775" width="9.109375" style="2"/>
-    <col min="11776" max="11776" width="3.5546875" style="2" customWidth="1"/>
-    <col min="11777" max="11777" width="21.44140625" style="2" customWidth="1"/>
+    <col min="11529" max="11775" width="9.1328125" style="2"/>
+    <col min="11776" max="11776" width="3.53125" style="2" customWidth="1"/>
+    <col min="11777" max="11777" width="21.46484375" style="2" customWidth="1"/>
     <col min="11778" max="11778" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11779" max="11779" width="24.33203125" style="2" customWidth="1"/>
     <col min="11780" max="11780" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="14.88671875" style="2" customWidth="1"/>
-    <col min="11782" max="11782" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="16.88671875" style="2" customWidth="1"/>
+    <col min="11781" max="11781" width="14.86328125" style="2" customWidth="1"/>
+    <col min="11782" max="11782" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="16.86328125" style="2" customWidth="1"/>
     <col min="11784" max="11784" width="14" style="2" customWidth="1"/>
-    <col min="11785" max="12031" width="9.109375" style="2"/>
-    <col min="12032" max="12032" width="3.5546875" style="2" customWidth="1"/>
-    <col min="12033" max="12033" width="21.44140625" style="2" customWidth="1"/>
+    <col min="11785" max="12031" width="9.1328125" style="2"/>
+    <col min="12032" max="12032" width="3.53125" style="2" customWidth="1"/>
+    <col min="12033" max="12033" width="21.46484375" style="2" customWidth="1"/>
     <col min="12034" max="12034" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12035" max="12035" width="24.33203125" style="2" customWidth="1"/>
     <col min="12036" max="12036" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="14.88671875" style="2" customWidth="1"/>
-    <col min="12038" max="12038" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="16.88671875" style="2" customWidth="1"/>
+    <col min="12037" max="12037" width="14.86328125" style="2" customWidth="1"/>
+    <col min="12038" max="12038" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="16.86328125" style="2" customWidth="1"/>
     <col min="12040" max="12040" width="14" style="2" customWidth="1"/>
-    <col min="12041" max="12287" width="9.109375" style="2"/>
-    <col min="12288" max="12288" width="3.5546875" style="2" customWidth="1"/>
-    <col min="12289" max="12289" width="21.44140625" style="2" customWidth="1"/>
+    <col min="12041" max="12287" width="9.1328125" style="2"/>
+    <col min="12288" max="12288" width="3.53125" style="2" customWidth="1"/>
+    <col min="12289" max="12289" width="21.46484375" style="2" customWidth="1"/>
     <col min="12290" max="12290" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12291" max="12291" width="24.33203125" style="2" customWidth="1"/>
     <col min="12292" max="12292" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="14.88671875" style="2" customWidth="1"/>
-    <col min="12294" max="12294" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="16.88671875" style="2" customWidth="1"/>
+    <col min="12293" max="12293" width="14.86328125" style="2" customWidth="1"/>
+    <col min="12294" max="12294" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="16.86328125" style="2" customWidth="1"/>
     <col min="12296" max="12296" width="14" style="2" customWidth="1"/>
-    <col min="12297" max="12543" width="9.109375" style="2"/>
-    <col min="12544" max="12544" width="3.5546875" style="2" customWidth="1"/>
-    <col min="12545" max="12545" width="21.44140625" style="2" customWidth="1"/>
+    <col min="12297" max="12543" width="9.1328125" style="2"/>
+    <col min="12544" max="12544" width="3.53125" style="2" customWidth="1"/>
+    <col min="12545" max="12545" width="21.46484375" style="2" customWidth="1"/>
     <col min="12546" max="12546" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12547" max="12547" width="24.33203125" style="2" customWidth="1"/>
     <col min="12548" max="12548" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="14.88671875" style="2" customWidth="1"/>
-    <col min="12550" max="12550" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="16.88671875" style="2" customWidth="1"/>
+    <col min="12549" max="12549" width="14.86328125" style="2" customWidth="1"/>
+    <col min="12550" max="12550" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="16.86328125" style="2" customWidth="1"/>
     <col min="12552" max="12552" width="14" style="2" customWidth="1"/>
-    <col min="12553" max="12799" width="9.109375" style="2"/>
-    <col min="12800" max="12800" width="3.5546875" style="2" customWidth="1"/>
-    <col min="12801" max="12801" width="21.44140625" style="2" customWidth="1"/>
+    <col min="12553" max="12799" width="9.1328125" style="2"/>
+    <col min="12800" max="12800" width="3.53125" style="2" customWidth="1"/>
+    <col min="12801" max="12801" width="21.46484375" style="2" customWidth="1"/>
     <col min="12802" max="12802" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12803" max="12803" width="24.33203125" style="2" customWidth="1"/>
     <col min="12804" max="12804" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="14.88671875" style="2" customWidth="1"/>
-    <col min="12806" max="12806" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="16.88671875" style="2" customWidth="1"/>
+    <col min="12805" max="12805" width="14.86328125" style="2" customWidth="1"/>
+    <col min="12806" max="12806" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="16.86328125" style="2" customWidth="1"/>
     <col min="12808" max="12808" width="14" style="2" customWidth="1"/>
-    <col min="12809" max="13055" width="9.109375" style="2"/>
-    <col min="13056" max="13056" width="3.5546875" style="2" customWidth="1"/>
-    <col min="13057" max="13057" width="21.44140625" style="2" customWidth="1"/>
+    <col min="12809" max="13055" width="9.1328125" style="2"/>
+    <col min="13056" max="13056" width="3.53125" style="2" customWidth="1"/>
+    <col min="13057" max="13057" width="21.46484375" style="2" customWidth="1"/>
     <col min="13058" max="13058" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13059" max="13059" width="24.33203125" style="2" customWidth="1"/>
     <col min="13060" max="13060" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="14.88671875" style="2" customWidth="1"/>
-    <col min="13062" max="13062" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="16.88671875" style="2" customWidth="1"/>
+    <col min="13061" max="13061" width="14.86328125" style="2" customWidth="1"/>
+    <col min="13062" max="13062" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="16.86328125" style="2" customWidth="1"/>
     <col min="13064" max="13064" width="14" style="2" customWidth="1"/>
-    <col min="13065" max="13311" width="9.109375" style="2"/>
-    <col min="13312" max="13312" width="3.5546875" style="2" customWidth="1"/>
-    <col min="13313" max="13313" width="21.44140625" style="2" customWidth="1"/>
+    <col min="13065" max="13311" width="9.1328125" style="2"/>
+    <col min="13312" max="13312" width="3.53125" style="2" customWidth="1"/>
+    <col min="13313" max="13313" width="21.46484375" style="2" customWidth="1"/>
     <col min="13314" max="13314" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13315" max="13315" width="24.33203125" style="2" customWidth="1"/>
     <col min="13316" max="13316" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="14.88671875" style="2" customWidth="1"/>
-    <col min="13318" max="13318" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="16.88671875" style="2" customWidth="1"/>
+    <col min="13317" max="13317" width="14.86328125" style="2" customWidth="1"/>
+    <col min="13318" max="13318" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="16.86328125" style="2" customWidth="1"/>
     <col min="13320" max="13320" width="14" style="2" customWidth="1"/>
-    <col min="13321" max="13567" width="9.109375" style="2"/>
-    <col min="13568" max="13568" width="3.5546875" style="2" customWidth="1"/>
-    <col min="13569" max="13569" width="21.44140625" style="2" customWidth="1"/>
+    <col min="13321" max="13567" width="9.1328125" style="2"/>
+    <col min="13568" max="13568" width="3.53125" style="2" customWidth="1"/>
+    <col min="13569" max="13569" width="21.46484375" style="2" customWidth="1"/>
     <col min="13570" max="13570" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13571" max="13571" width="24.33203125" style="2" customWidth="1"/>
     <col min="13572" max="13572" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="14.88671875" style="2" customWidth="1"/>
-    <col min="13574" max="13574" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="16.88671875" style="2" customWidth="1"/>
+    <col min="13573" max="13573" width="14.86328125" style="2" customWidth="1"/>
+    <col min="13574" max="13574" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="16.86328125" style="2" customWidth="1"/>
     <col min="13576" max="13576" width="14" style="2" customWidth="1"/>
-    <col min="13577" max="13823" width="9.109375" style="2"/>
-    <col min="13824" max="13824" width="3.5546875" style="2" customWidth="1"/>
-    <col min="13825" max="13825" width="21.44140625" style="2" customWidth="1"/>
+    <col min="13577" max="13823" width="9.1328125" style="2"/>
+    <col min="13824" max="13824" width="3.53125" style="2" customWidth="1"/>
+    <col min="13825" max="13825" width="21.46484375" style="2" customWidth="1"/>
     <col min="13826" max="13826" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13827" max="13827" width="24.33203125" style="2" customWidth="1"/>
     <col min="13828" max="13828" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="14.88671875" style="2" customWidth="1"/>
-    <col min="13830" max="13830" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="16.88671875" style="2" customWidth="1"/>
+    <col min="13829" max="13829" width="14.86328125" style="2" customWidth="1"/>
+    <col min="13830" max="13830" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="16.86328125" style="2" customWidth="1"/>
     <col min="13832" max="13832" width="14" style="2" customWidth="1"/>
-    <col min="13833" max="14079" width="9.109375" style="2"/>
-    <col min="14080" max="14080" width="3.5546875" style="2" customWidth="1"/>
-    <col min="14081" max="14081" width="21.44140625" style="2" customWidth="1"/>
+    <col min="13833" max="14079" width="9.1328125" style="2"/>
+    <col min="14080" max="14080" width="3.53125" style="2" customWidth="1"/>
+    <col min="14081" max="14081" width="21.46484375" style="2" customWidth="1"/>
     <col min="14082" max="14082" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="14083" max="14083" width="24.33203125" style="2" customWidth="1"/>
     <col min="14084" max="14084" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="14.88671875" style="2" customWidth="1"/>
-    <col min="14086" max="14086" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="16.88671875" style="2" customWidth="1"/>
+    <col min="14085" max="14085" width="14.86328125" style="2" customWidth="1"/>
+    <col min="14086" max="14086" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="16.86328125" style="2" customWidth="1"/>
     <col min="14088" max="14088" width="14" style="2" customWidth="1"/>
-    <col min="14089" max="14335" width="9.109375" style="2"/>
-    <col min="14336" max="14336" width="3.5546875" style="2" customWidth="1"/>
-    <col min="14337" max="14337" width="21.44140625" style="2" customWidth="1"/>
+    <col min="14089" max="14335" width="9.1328125" style="2"/>
+    <col min="14336" max="14336" width="3.53125" style="2" customWidth="1"/>
+    <col min="14337" max="14337" width="21.46484375" style="2" customWidth="1"/>
     <col min="14338" max="14338" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="14339" max="14339" width="24.33203125" style="2" customWidth="1"/>
     <col min="14340" max="14340" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="14.88671875" style="2" customWidth="1"/>
-    <col min="14342" max="14342" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="16.88671875" style="2" customWidth="1"/>
+    <col min="14341" max="14341" width="14.86328125" style="2" customWidth="1"/>
+    <col min="14342" max="14342" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="16.86328125" style="2" customWidth="1"/>
     <col min="14344" max="14344" width="14" style="2" customWidth="1"/>
-    <col min="14345" max="14591" width="9.109375" style="2"/>
-    <col min="14592" max="14592" width="3.5546875" style="2" customWidth="1"/>
-    <col min="14593" max="14593" width="21.44140625" style="2" customWidth="1"/>
+    <col min="14345" max="14591" width="9.1328125" style="2"/>
+    <col min="14592" max="14592" width="3.53125" style="2" customWidth="1"/>
+    <col min="14593" max="14593" width="21.46484375" style="2" customWidth="1"/>
     <col min="14594" max="14594" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="14595" max="14595" width="24.33203125" style="2" customWidth="1"/>
     <col min="14596" max="14596" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="14.88671875" style="2" customWidth="1"/>
-    <col min="14598" max="14598" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="16.88671875" style="2" customWidth="1"/>
+    <col min="14597" max="14597" width="14.86328125" style="2" customWidth="1"/>
+    <col min="14598" max="14598" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="16.86328125" style="2" customWidth="1"/>
     <col min="14600" max="14600" width="14" style="2" customWidth="1"/>
-    <col min="14601" max="14847" width="9.109375" style="2"/>
-    <col min="14848" max="14848" width="3.5546875" style="2" customWidth="1"/>
-    <col min="14849" max="14849" width="21.44140625" style="2" customWidth="1"/>
+    <col min="14601" max="14847" width="9.1328125" style="2"/>
+    <col min="14848" max="14848" width="3.53125" style="2" customWidth="1"/>
+    <col min="14849" max="14849" width="21.46484375" style="2" customWidth="1"/>
     <col min="14850" max="14850" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="14851" max="14851" width="24.33203125" style="2" customWidth="1"/>
     <col min="14852" max="14852" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="14.88671875" style="2" customWidth="1"/>
-    <col min="14854" max="14854" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="16.88671875" style="2" customWidth="1"/>
+    <col min="14853" max="14853" width="14.86328125" style="2" customWidth="1"/>
+    <col min="14854" max="14854" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="16.86328125" style="2" customWidth="1"/>
     <col min="14856" max="14856" width="14" style="2" customWidth="1"/>
-    <col min="14857" max="15103" width="9.109375" style="2"/>
-    <col min="15104" max="15104" width="3.5546875" style="2" customWidth="1"/>
-    <col min="15105" max="15105" width="21.44140625" style="2" customWidth="1"/>
+    <col min="14857" max="15103" width="9.1328125" style="2"/>
+    <col min="15104" max="15104" width="3.53125" style="2" customWidth="1"/>
+    <col min="15105" max="15105" width="21.46484375" style="2" customWidth="1"/>
     <col min="15106" max="15106" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="15107" max="15107" width="24.33203125" style="2" customWidth="1"/>
     <col min="15108" max="15108" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="14.88671875" style="2" customWidth="1"/>
-    <col min="15110" max="15110" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="16.88671875" style="2" customWidth="1"/>
+    <col min="15109" max="15109" width="14.86328125" style="2" customWidth="1"/>
+    <col min="15110" max="15110" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="16.86328125" style="2" customWidth="1"/>
     <col min="15112" max="15112" width="14" style="2" customWidth="1"/>
-    <col min="15113" max="15359" width="9.109375" style="2"/>
-    <col min="15360" max="15360" width="3.5546875" style="2" customWidth="1"/>
-    <col min="15361" max="15361" width="21.44140625" style="2" customWidth="1"/>
+    <col min="15113" max="15359" width="9.1328125" style="2"/>
+    <col min="15360" max="15360" width="3.53125" style="2" customWidth="1"/>
+    <col min="15361" max="15361" width="21.46484375" style="2" customWidth="1"/>
     <col min="15362" max="15362" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="15363" max="15363" width="24.33203125" style="2" customWidth="1"/>
     <col min="15364" max="15364" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="14.88671875" style="2" customWidth="1"/>
-    <col min="15366" max="15366" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="16.88671875" style="2" customWidth="1"/>
+    <col min="15365" max="15365" width="14.86328125" style="2" customWidth="1"/>
+    <col min="15366" max="15366" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="16.86328125" style="2" customWidth="1"/>
     <col min="15368" max="15368" width="14" style="2" customWidth="1"/>
-    <col min="15369" max="15615" width="9.109375" style="2"/>
-    <col min="15616" max="15616" width="3.5546875" style="2" customWidth="1"/>
-    <col min="15617" max="15617" width="21.44140625" style="2" customWidth="1"/>
+    <col min="15369" max="15615" width="9.1328125" style="2"/>
+    <col min="15616" max="15616" width="3.53125" style="2" customWidth="1"/>
+    <col min="15617" max="15617" width="21.46484375" style="2" customWidth="1"/>
     <col min="15618" max="15618" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="15619" max="15619" width="24.33203125" style="2" customWidth="1"/>
     <col min="15620" max="15620" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="14.88671875" style="2" customWidth="1"/>
-    <col min="15622" max="15622" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="16.88671875" style="2" customWidth="1"/>
+    <col min="15621" max="15621" width="14.86328125" style="2" customWidth="1"/>
+    <col min="15622" max="15622" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="16.86328125" style="2" customWidth="1"/>
     <col min="15624" max="15624" width="14" style="2" customWidth="1"/>
-    <col min="15625" max="15871" width="9.109375" style="2"/>
-    <col min="15872" max="15872" width="3.5546875" style="2" customWidth="1"/>
-    <col min="15873" max="15873" width="21.44140625" style="2" customWidth="1"/>
+    <col min="15625" max="15871" width="9.1328125" style="2"/>
+    <col min="15872" max="15872" width="3.53125" style="2" customWidth="1"/>
+    <col min="15873" max="15873" width="21.46484375" style="2" customWidth="1"/>
     <col min="15874" max="15874" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="15875" max="15875" width="24.33203125" style="2" customWidth="1"/>
     <col min="15876" max="15876" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="14.88671875" style="2" customWidth="1"/>
-    <col min="15878" max="15878" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="16.88671875" style="2" customWidth="1"/>
+    <col min="15877" max="15877" width="14.86328125" style="2" customWidth="1"/>
+    <col min="15878" max="15878" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="16.86328125" style="2" customWidth="1"/>
     <col min="15880" max="15880" width="14" style="2" customWidth="1"/>
-    <col min="15881" max="16127" width="9.109375" style="2"/>
-    <col min="16128" max="16128" width="3.5546875" style="2" customWidth="1"/>
-    <col min="16129" max="16129" width="21.44140625" style="2" customWidth="1"/>
+    <col min="15881" max="16127" width="9.1328125" style="2"/>
+    <col min="16128" max="16128" width="3.53125" style="2" customWidth="1"/>
+    <col min="16129" max="16129" width="21.46484375" style="2" customWidth="1"/>
     <col min="16130" max="16130" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="16131" max="16131" width="24.33203125" style="2" customWidth="1"/>
     <col min="16132" max="16132" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="14.88671875" style="2" customWidth="1"/>
-    <col min="16134" max="16134" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="16.88671875" style="2" customWidth="1"/>
+    <col min="16133" max="16133" width="14.86328125" style="2" customWidth="1"/>
+    <col min="16134" max="16134" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="16.86328125" style="2" customWidth="1"/>
     <col min="16136" max="16136" width="14" style="2" customWidth="1"/>
-    <col min="16137" max="16383" width="9.109375" style="2"/>
-    <col min="16384" max="16384" width="9.109375" style="2" customWidth="1"/>
+    <col min="16137" max="16383" width="9.1328125" style="2"/>
+    <col min="16384" max="16384" width="9.1328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -3163,19 +3163,19 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="7" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E7" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B9" s="16" t="s">
         <v>5</v>
       </c>
@@ -3195,10 +3195,10 @@
         <v>10</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="2:9" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
@@ -3223,12 +3223,12 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="11">
@@ -3245,10 +3245,10 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="11">
@@ -3263,23 +3263,23 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
     </row>
-    <row r="59" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I61" s="19"/>
     </row>
   </sheetData>
@@ -3289,6 +3289,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100028FD4181988DA42A7F39A8E55AED015" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="800875004252cf03a3c313b269c629db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -3402,15 +3411,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3418,13 +3418,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B02B38B5-8E39-4F84-B4FE-82583DF54EA6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F081D069-1D0B-49A2-AA51-CA64524C1CD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F081D069-1D0B-49A2-AA51-CA64524C1CD1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B02B38B5-8E39-4F84-B4FE-82583DF54EA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ABBD0DD-2AB1-4E2C-B63F-7A11A6791AE1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ABBD0DD-2AB1-4E2C-B63F-7A11A6791AE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>